--- a/api/svg/top.xlsx
+++ b/api/svg/top.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="10480"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
-    <sheet name="top" sheetId="1" r:id="rId1"/>
+    <sheet name="src" sheetId="1" r:id="rId1"/>
+    <sheet name="ext" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,18 +28,108 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
+  <si>
+    <t xml:space="preserve">Index </t>
+  </si>
+  <si>
+    <t>Tag</t>
+  </si>
+  <si>
+    <t>Platform</t>
+  </si>
+  <si>
+    <t>Metadata</t>
+  </si>
+  <si>
+    <t>Attribute </t>
+  </si>
+  <si>
+    <t>Score</t>
+  </si>
   <si>
     <t>Code</t>
   </si>
   <si>
-    <t>排行</t>
+    <t>top</t>
+  </si>
+  <si>
+    <t>Github</t>
   </si>
   <si>
     <t>GitHub 中文排行榜</t>
   </si>
   <si>
     <t>https://www.github-zh.com/top-china</t>
+  </si>
+  <si>
+    <t>cracking/extend</t>
+  </si>
+  <si>
+    <t>Tampermonkey</t>
+  </si>
+  <si>
+    <t>extend</t>
+  </si>
+  <si>
+    <t>Edge</t>
+  </si>
+  <si>
+    <t>News</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>Reddit</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>tech</t>
+  </si>
+  <si>
+    <t>Taobao</t>
+  </si>
+  <si>
+    <t>大淘宝技术</t>
+  </si>
+  <si>
+    <t>https://tech.taobao.org/open-source</t>
+  </si>
+  <si>
+    <t>job</t>
+  </si>
+  <si>
+    <t>猿急送</t>
+  </si>
+  <si>
+    <t>程序员兼职_外包_工程师兼职招聘-猿急送 (yuanjisong.com)</t>
+  </si>
+  <si>
+    <t>https://www.yuanjisong.com/job</t>
+  </si>
+  <si>
+    <t>Comm</t>
+  </si>
+  <si>
+    <t>1point3acres</t>
+  </si>
+  <si>
+    <t>https://www.1point3acres.com/bbs/thread-960129-3-1.html</t>
+  </si>
+  <si>
+    <t>Index</t>
+  </si>
+  <si>
+    <t>TAG</t>
+  </si>
+  <si>
+    <t>DESC</t>
+  </si>
+  <si>
+    <t>SCORE</t>
   </si>
 </sst>
 </file>
@@ -51,13 +142,19 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF060607"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -69,15 +166,15 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -211,7 +308,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -220,6 +317,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -405,12 +508,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -531,16 +649,13 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -549,37 +664,37 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -594,81 +709,99 @@
     <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1196,38 +1329,192 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:D2"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="12.8181818181818" customWidth="1"/>
-    <col min="2" max="2" width="6.18181818181818" customWidth="1"/>
-    <col min="3" max="3" width="18.4545454545455" customWidth="1"/>
+    <col min="1" max="1" width="12.8166666666667" customWidth="1"/>
+    <col min="2" max="2" width="20.625" customWidth="1"/>
+    <col min="3" max="3" width="19.5" customWidth="1"/>
+    <col min="4" max="4" width="31.5" customWidth="1"/>
+    <col min="5" max="5" width="31.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="24" customHeight="1" spans="1:4">
+    <row r="1" s="2" customFormat="1" spans="1:6">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" ht="24" customHeight="1" spans="1:5">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="https://www.github-zh.com/top-china"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://www.github-zh.com/top-china"/>
+    <hyperlink ref="E7" r:id="rId2" display="https://tech.taobao.org/open-source"/>
+    <hyperlink ref="E9" r:id="rId3" display="https://www.yuanjisong.com/job"/>
+    <hyperlink ref="E10" r:id="rId4" display="https://www.1point3acres.com/bbs/thread-960129-3-1.html"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="12.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>